--- a/trunk/Document/Compare_Index_NoIndex.xlsx
+++ b/trunk/Document/Compare_Index_NoIndex.xlsx
@@ -17,12 +17,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>No Index</t>
-  </si>
-  <si>
     <t>Kết quả thực hiện so sánh performance của RavenDB khi có sử dụng index và không sử dụng index</t>
   </si>
   <si>
@@ -88,6 +82,12 @@
   </si>
   <si>
     <t>index</t>
+  </si>
+  <si>
+    <t>SQL Server</t>
+  </si>
+  <si>
+    <t>RvenDB</t>
   </si>
 </sst>
 </file>
@@ -141,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,11 +149,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border diagonalDown="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal style="thin">
         <color auto="1"/>
       </diagonal>
@@ -162,27 +185,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,7 +554,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -546,45 +573,46 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="B5" s="11">
         <f>AVERAGE(B6:B10)</f>
+        <v>9.652777777777779E-7</v>
+      </c>
+      <c r="C5" s="11">
+        <f>AVERAGE(C6:C10)</f>
         <v>3.7222222222222221E-6</v>
       </c>
-      <c r="C5" s="3">
-        <f>AVERAGE(C6:C10)</f>
-        <v>9.7268518518518525E-6</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="D5" s="12">
         <f t="shared" ref="D5:D10" si="0">C5-B5</f>
-        <v>6.00462962962963E-6</v>
-      </c>
-      <c r="E5" s="9">
+        <v>2.7569444444444442E-6</v>
+      </c>
+      <c r="E5" s="13">
         <f>D5/B5</f>
-        <v>1.6131840796019903</v>
+        <v>2.8561151079136686</v>
       </c>
       <c r="H5" s="2" t="e">
         <f>AVERAGE(H6:H11)</f>
@@ -592,129 +620,134 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="15">
+        <v>3.5995370370370369E-6</v>
+      </c>
+      <c r="C6" s="15">
         <v>1.1018518518518517E-5</v>
       </c>
-      <c r="C6" s="1">
-        <v>4.403935185185185E-5</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="D6" s="15">
         <f t="shared" si="0"/>
-        <v>3.3020833333333334E-5</v>
-      </c>
+        <v>7.4189814814814803E-6</v>
+      </c>
+      <c r="E6" s="8"/>
       <c r="H6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="15">
+        <v>3.0092592592592594E-7</v>
+      </c>
+      <c r="C7" s="15">
         <v>6.7361111111111103E-6</v>
       </c>
-      <c r="C7" s="1">
-        <v>3.7731481481481483E-6</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="D7" s="15">
         <f t="shared" si="0"/>
-        <v>-2.9629629629629621E-6</v>
-      </c>
+        <v>6.435185185185184E-6</v>
+      </c>
+      <c r="E7" s="8"/>
       <c r="H7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="15">
+        <v>3.1250000000000003E-7</v>
+      </c>
+      <c r="C8" s="15">
         <v>2.6620370370370372E-7</v>
       </c>
-      <c r="C8" s="1">
-        <v>3.1250000000000003E-7</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>4.6296296296296302E-8</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3.0092592592592594E-7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2.5462962962962963E-7</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="D8" s="15">
         <f t="shared" si="0"/>
         <v>-4.6296296296296302E-8</v>
       </c>
+      <c r="E8" s="8"/>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>4</v>
+      </c>
+      <c r="B9" s="15">
+        <v>3.1250000000000003E-7</v>
+      </c>
+      <c r="C9" s="15">
+        <v>3.0092592592592594E-7</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" si="0"/>
+        <v>-1.1574074074074089E-8</v>
+      </c>
+      <c r="E9" s="8"/>
       <c r="H9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="14">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="15">
+        <v>3.0092592592592594E-7</v>
+      </c>
+      <c r="C10" s="15">
         <v>2.8935185185185185E-7</v>
       </c>
-      <c r="C10" s="1">
-        <v>2.5462962962962963E-7</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="D10" s="15">
         <f t="shared" si="0"/>
-        <v>-3.4722222222222213E-8</v>
-      </c>
+        <v>-1.1574074074074089E-8</v>
+      </c>
+      <c r="E10" s="8"/>
       <c r="H10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>8</v>
+      <c r="A12" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="H15" s="1">
         <v>4.403935185185185E-5</v>
       </c>
@@ -723,14 +756,14 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
       <c r="H16" s="1">
         <v>3.7731481481481483E-6</v>
       </c>
@@ -739,10 +772,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="A17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
       <c r="H17" s="1">
         <v>3.1250000000000003E-7</v>
       </c>
@@ -751,14 +784,14 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>6</v>
+      <c r="A18" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
       <c r="H18" s="1">
         <v>2.5462962962962963E-7</v>
       </c>
@@ -767,14 +800,14 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
       <c r="H19" s="1">
         <v>2.5462962962962963E-7</v>
       </c>
@@ -783,46 +816,46 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="A21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25">
@@ -895,9 +928,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>7</v>
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
